--- a/StarlightCinema_Bai3_Clean.xlsx
+++ b/StarlightCinema_Bai3_Clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489A1BCC-E79A-4D3D-BD00-F9605A5B06CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD4BB01-AED6-4CE7-9575-2BD512D00580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DuLieuBanVe" sheetId="1" r:id="rId1"/>
@@ -1320,7 +1320,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1343,36 +1343,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1413,12 +1383,48 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -1435,8 +1441,12 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -1466,60 +1476,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8B0000"/>
-          <bgColor rgb="FF8B0000"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1615,6 +1571,9 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -1622,12 +1581,43 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8B0000"/>
+          <bgColor rgb="FF8B0000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1644,23 +1634,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F9C7F7BF-9643-4F81-8D08-CD481D59131B}" name="BanVePhim" displayName="BanVePhim" ref="A1:L234" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="17" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F9C7F7BF-9643-4F81-8D08-CD481D59131B}" name="BanVePhim" displayName="BanVePhim" ref="A1:L234" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A1:L234" xr:uid="{F9C7F7BF-9643-4F81-8D08-CD481D59131B}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{BA87F6D0-DC85-4A28-B72E-6FCAD38C34CE}" name="Mã Giao Dịch" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{D12EFFD4-5583-423F-A65D-B1C4F9C092F7}" name="Ngày" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{CB667804-D2D9-4DE6-928D-97D3B0C60416}" name="Tên Phim" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{83379CEA-17E5-4278-AC7B-CF3D6BB34EBD}" name="Thể Loại" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{413F64E8-FF0D-47DA-A4EA-B162ED4D229B}" name="Suất Chiếu" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{BA87F6D0-DC85-4A28-B72E-6FCAD38C34CE}" name="Mã Giao Dịch" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{D12EFFD4-5583-423F-A65D-B1C4F9C092F7}" name="Ngày" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{CB667804-D2D9-4DE6-928D-97D3B0C60416}" name="Tên Phim" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{83379CEA-17E5-4278-AC7B-CF3D6BB34EBD}" name="Thể Loại" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{413F64E8-FF0D-47DA-A4EA-B162ED4D229B}" name="Suất Chiếu" dataDxfId="10"/>
     <tableColumn id="6" xr3:uid="{9D970674-5CF4-4C80-9A84-88B7D090B158}" name="Phòng Chiếu" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{5254D6C7-E662-46FC-872C-3B851C5C4DE2}" name="Loại Ghế" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{5F839B11-A8E8-4616-AA85-547628CA6486}" name="Số Lượng Vé" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{549CD515-50BE-47A7-B9E2-E5EE361910E8}" name="Giá Vé" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{B3F7B4AC-FBE8-4D26-A86C-2176ADE04453}" name="Thành tiền" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{5254D6C7-E662-46FC-872C-3B851C5C4DE2}" name="Loại Ghế" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{5F839B11-A8E8-4616-AA85-547628CA6486}" name="Số Lượng Vé" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{549CD515-50BE-47A7-B9E2-E5EE361910E8}" name="Giá Vé" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{B3F7B4AC-FBE8-4D26-A86C-2176ADE04453}" name="Thành tiền" dataDxfId="5">
       <calculatedColumnFormula xml:space="preserve"> H2*I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8640944B-ED0E-49F1-B90C-45682FBAC1BC}" name="Chi Nhánh" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{29C03C91-A101-4BB6-A0BC-D6A97AC9A7AC}" name="Kênh Đặt" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{8640944B-ED0E-49F1-B90C-45682FBAC1BC}" name="Chi Nhánh" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{29C03C91-A101-4BB6-A0BC-D6A97AC9A7AC}" name="Kênh Đặt" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1671,7 +1661,7 @@
   <autoFilter ref="A1:C2" xr:uid="{9810502D-7A3B-42C0-8281-26372D5DCA83}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{6EF26541-A5C7-4F9C-9722-6D4277A3AA47}" name="Tổng doanh thu _x000a_toàn bộ" dataDxfId="2">
-      <calculatedColumnFormula>SUM(BanVePhim[Giá Vé])</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(BanVePhim[Thành tiền])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{0FFC1D06-FE21-484D-8D27-6D446AD70FBF}" name="Số giao dịch">
       <calculatedColumnFormula>COUNTA(BanVePhim[Mã Giao Dịch])</calculatedColumnFormula>
@@ -1971,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11130,8 +11120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2462C39E-0439-4E53-8351-610D4A8EB299}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11141,7 +11131,7 @@
     <col min="3" max="3" width="34.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>379</v>
       </c>
@@ -11154,8 +11144,8 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
-        <f>SUM(BanVePhim[Giá Vé])</f>
-        <v>26225000</v>
+        <f>SUM(BanVePhim[Thành tiền])</f>
+        <v>61630000</v>
       </c>
       <c r="B2">
         <f>COUNTA(BanVePhim[Mã Giao Dịch])</f>
@@ -11163,7 +11153,7 @@
       </c>
       <c r="C2">
         <f>A2/B2</f>
-        <v>112553.64806866953</v>
+        <v>264506.43776824034</v>
       </c>
     </row>
   </sheetData>
